--- a/NMP/项目定制款/OK_Cast_MP/NMP211-221装箱清单（韩国版、物理面板、臻为无线麦）-20250219.xlsx
+++ b/NMP/项目定制款/OK_Cast_MP/NMP211-221装箱清单（韩国版、物理面板、臻为无线麦）-20250219.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewang/Documents/Githubs/IQ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leewang/Documents/Githubs/IQ/Docs/NMP/项目定制款/OK_Cast_MP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6261928-4351-5449-BD75-11E000A7BF74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D3EAD-86D8-2C4C-B816-D9AA2D8C2EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-800" yWindow="-19220" windowWidth="29380" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>装箱清单</t>
   </si>
@@ -167,12 +167,6 @@
   </si>
   <si>
     <t>Lapel Microphone Transmitter Antenna</t>
-  </si>
-  <si>
-    <t>SMA胶棒天线（带孔）</t>
-  </si>
-  <si>
-    <t>SMA Rubber Duck Antenna (female)</t>
   </si>
   <si>
     <t>内六角螺丝M2.6*5mm</t>
@@ -597,14 +591,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -904,17 +898,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -1042,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="17">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1141,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
@@ -1204,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
@@ -1267,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -1309,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1330,7 +1324,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1399,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17">
+    <row r="25" spans="1:7" ht="18" customHeight="1">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1428,9 +1422,8 @@
         <v>49</v>
       </c>
       <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>2</v>
+      </c>
       <c r="E26" s="8">
         <v>24</v>
       </c>
@@ -1438,7 +1431,7 @@
         <v>50</v>
       </c>
       <c r="G26" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17">
@@ -1449,7 +1442,7 @@
         <v>51</v>
       </c>
       <c r="C27" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27" s="8">
         <v>25</v>
@@ -1458,7 +1451,7 @@
         <v>52</v>
       </c>
       <c r="G27" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17">
@@ -1469,7 +1462,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28" s="8">
         <v>26</v>
@@ -1478,7 +1471,7 @@
         <v>54</v>
       </c>
       <c r="G28" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17">
@@ -1489,7 +1482,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E29" s="8">
         <v>27</v>
@@ -1498,7 +1491,7 @@
         <v>56</v>
       </c>
       <c r="G29" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17">
@@ -1509,7 +1502,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="8">
         <v>28</v>
@@ -1518,7 +1511,7 @@
         <v>58</v>
       </c>
       <c r="G30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17">
@@ -1545,7 +1538,7 @@
       <c r="A32" s="8">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="8">
@@ -1565,79 +1558,59 @@
       <c r="A33" s="8">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="8">
         <v>31</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>64</v>
+      <c r="F33" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="G33" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17">
       <c r="A34" s="8">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>65</v>
+      <c r="B34" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E34" s="8">
         <v>32</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>71</v>
+      <c r="F34" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="G34" s="8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17">
       <c r="A35" s="8">
         <v>33</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>72</v>
+      <c r="B35" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="C35" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E35" s="8">
         <v>33</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>74</v>
+      <c r="F35" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="G35" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17">
-      <c r="A36" s="8">
-        <v>34</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="8">
-        <v>34</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="8">
         <v>1</v>
       </c>
     </row>
